--- a/biology/Zoologie/Anabate_roux/Anabate_roux.xlsx
+++ b/biology/Zoologie/Anabate_roux/Anabate_roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philydor rufum
 L'Anabate roux (Philydor rufum) est une espèce de passereaux de la famille des Furnariidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit en Amérique centrale au Costa Rica, Panama, dans le nord et le centre de l'Amérique du Sud.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat se situe dans les forêts humides de plaine et de montagne tropicales et subtropicales.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (25 avril 2020)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (25 avril 2020) :
 sous-espèce Philydor rufum bolivianum Berlepsch, 1907 - Est de l'Équateur, Bolivie
 sous-espèce Philydor rufum chapadense Zimmer, 1935 - Sud-ouest du Brésil
 sous-espèce Philydor rufum columbianum Cabanis &amp; Heine, 1859 - Nord du Venezuela
